--- a/ml/clean_code/Benchmark_Results.xlsx
+++ b/ml/clean_code/Benchmark_Results.xlsx
@@ -34,13 +34,13 @@
     <t>xgboost</t>
   </si>
   <si>
-    <t>{'0': {'precision': 0.8484320557491289, 'recall': 0.974, 'f1-score': 0.9068901303538175, 'support': 500.0}, '1': {'precision': 0.5, 'recall': 0.13, 'f1-score': 0.20634920634920637, 'support': 100.0}, 'accuracy': 0.8333333333333334, 'macro avg': {'precision': 0.6742160278745645, 'recall': 0.552, 'f1-score': 0.5566196683515119, 'support': 600.0}, 'weighted avg': {'precision': 0.7903600464576075, 'recall': 0.8333333333333334, 'f1-score': 0.7901333096863824, 'support': 600.0}}</t>
-  </si>
-  <si>
-    <t>{'0': {'precision': 0.8620689655172413, 'recall': 0.95, 'f1-score': 0.9039010466222644, 'support': 500.0}, '1': {'precision': 0.4897959183673469, 'recall': 0.24, 'f1-score': 0.3221476510067114, 'support': 100.0}, 'accuracy': 0.8316666666666667, 'macro avg': {'precision': 0.6759324419422941, 'recall': 0.595, 'f1-score': 0.613024348814488, 'support': 600.0}, 'weighted avg': {'precision': 0.8000234576589256, 'recall': 0.8316666666666667, 'f1-score': 0.8069421473530055, 'support': 600.0}}</t>
-  </si>
-  <si>
-    <t>{'0': {'precision': 0.864376130198915, 'recall': 0.956, 'f1-score': 0.9078822412155746, 'support': 500.0}, '1': {'precision': 0.5319148936170213, 'recall': 0.25, 'f1-score': 0.3401360544217687, 'support': 100.0}, 'accuracy': 0.8383333333333334, 'macro avg': {'precision': 0.6981455119079681, 'recall': 0.603, 'f1-score': 0.6240091478186717, 'support': 600.0}, 'weighted avg': {'precision': 0.8089659241019327, 'recall': 0.8383333333333334, 'f1-score': 0.8132578767499403, 'support': 600.0}}</t>
+    <t>{'0': {'precision': 0.8539458186101295, 'recall': 0.9666666666666667, 'f1-score': 0.9068167604752971, 'support': 750.0}, '1': {'precision': 0.5098039215686274, 'recall': 0.17333333333333334, 'f1-score': 0.2587064676616916, 'support': 150.0}, 'accuracy': 0.8344444444444444, 'macro avg': {'precision': 0.6818748700893784, 'recall': 0.5700000000000001, 'f1-score': 0.5827616140684944, 'support': 900.0}, 'weighted avg': {'precision': 0.7965888357698792, 'recall': 0.8344444444444444, 'f1-score': 0.7987983783396962, 'support': 900.0}}</t>
+  </si>
+  <si>
+    <t>{'0': {'precision': 0.859880239520958, 'recall': 0.9573333333333334, 'f1-score': 0.9059936908517351, 'support': 750.0}, '1': {'precision': 0.5076923076923077, 'recall': 0.22, 'f1-score': 0.30697674418604654, 'support': 150.0}, 'accuracy': 0.8344444444444444, 'macro avg': {'precision': 0.6837862736066329, 'recall': 0.5886666666666667, 'f1-score': 0.6064852175188908, 'support': 900.0}, 'weighted avg': {'precision': 0.8011822508828497, 'recall': 0.8344444444444444, 'f1-score': 0.8061575330741203, 'support': 900.0}}</t>
+  </si>
+  <si>
+    <t>{'0': {'precision': 0.8549346016646849, 'recall': 0.9586666666666667, 'f1-score': 0.9038340666247644, 'support': 750.0}, '1': {'precision': 0.4745762711864407, 'recall': 0.18666666666666668, 'f1-score': 0.2679425837320574, 'support': 150.0}, 'accuracy': 0.83, 'macro avg': {'precision': 0.6647554364255628, 'recall': 0.5726666666666667, 'f1-score': 0.5858883251784109, 'support': 900.0}, 'weighted avg': {'precision': 0.7915415465849774, 'recall': 0.83, 'f1-score': 0.7978521528093132, 'support': 900.0}}</t>
   </si>
 </sst>
 </file>
@@ -420,7 +420,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>0.8333333333333334</v>
+        <v>0.8344444444444444</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
@@ -431,7 +431,7 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>0.8316666666666667</v>
+        <v>0.8344444444444444</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
@@ -442,7 +442,7 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>0.8383333333333334</v>
+        <v>0.83</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
